--- a/mAjustesInventario/bak_VILL3009.xlsx
+++ b/mAjustesInventario/bak_VILL3009.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Acosta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EDD7CC8-44E3-4DBD-9212-0A43EB4D51E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D8CD119-93C0-45F7-BA12-4C4DD2BB17BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{18E576BF-4546-4560-A181-48B5C0CDCB8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{392936A2-28C8-4F31-BBBF-8A10EFD7F49C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,69 +34,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>0245</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>7501025414108</t>
-  </si>
-  <si>
-    <t>2128</t>
-  </si>
-  <si>
-    <t>102804</t>
-  </si>
-  <si>
-    <t>7500435139984</t>
-  </si>
-  <si>
-    <t>7501036622127</t>
-  </si>
-  <si>
-    <t>0662</t>
-  </si>
-  <si>
-    <t>658480001262</t>
-  </si>
-  <si>
-    <t>7501020536546</t>
-  </si>
-  <si>
-    <t>7501047902904</t>
-  </si>
-  <si>
-    <t>7501055303786</t>
-  </si>
-  <si>
-    <t>7501055305322</t>
-  </si>
-  <si>
-    <t>7501130902194</t>
-  </si>
-  <si>
-    <t>7501130903245</t>
-  </si>
-  <si>
-    <t>7501206683118</t>
-  </si>
-  <si>
-    <t>7503002005514</t>
-  </si>
-  <si>
-    <t>8000500331859</t>
-  </si>
-  <si>
-    <t>0703</t>
-  </si>
-  <si>
-    <t>0423</t>
-  </si>
-  <si>
-    <t>0124</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>0664</t>
+  </si>
+  <si>
+    <t>0701</t>
+  </si>
+  <si>
+    <t>109931</t>
+  </si>
+  <si>
+    <t>0708</t>
+  </si>
+  <si>
+    <t>7501100662301</t>
+  </si>
+  <si>
+    <t>0912</t>
+  </si>
+  <si>
+    <t>613963111012</t>
+  </si>
+  <si>
+    <t>7501024598205</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>7503008805385</t>
+  </si>
+  <si>
+    <t>7501058743121</t>
+  </si>
+  <si>
+    <t>0709</t>
+  </si>
+  <si>
+    <t>0575</t>
+  </si>
+  <si>
+    <t>7501020526004</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>0522</t>
+  </si>
+  <si>
+    <t>0746</t>
+  </si>
+  <si>
+    <t>1182</t>
   </si>
 </sst>
 </file>
@@ -448,8 +442,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E6B39E-6CD4-4CED-8B74-BD8D384E00C7}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF16726-ACB4-4260-B88A-D5B6F3D495A6}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -462,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>7</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -470,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -478,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -486,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -494,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -502,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -510,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -518,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -526,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -534,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -542,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -550,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -558,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,7 +560,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -582,7 +576,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -590,7 +584,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -598,7 +592,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -606,22 +600,6 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
         <v>2</v>
       </c>
     </row>
